--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Taking off</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Loading database failed</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Geo-awareness function degraded</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1067,21 +1067,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>3-17</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1451,57 +1451,57 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1517,89 +1517,179 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>21</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>21</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
         <v>22</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>22</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Taking off</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Loading database failed</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1067,21 +1067,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Geo-awareness function degraded</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-17</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-17</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1451,57 +1451,57 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1517,81 +1517,81 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1600,96 +1600,6 @@
         </is>
       </c>
       <c r="F39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>21</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>22</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>6-10</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>22</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
